--- a/differences_3_0.2.xlsx
+++ b/differences_3_0.2.xlsx
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.899999999999999</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -7845,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X97" t="n">
         <v>0</v>
